--- a/spreadsheets/blocking/bloccoCanon.xlsx
+++ b/spreadsheets/blocking/bloccoCanon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\blocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C01466F-1EF6-4644-BBAC-9B4A1B78466E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEF3D6-47CF-4A14-BB73-6C3A7F5148F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canon Block I" sheetId="1" r:id="rId1"/>
@@ -140,13 +140,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2221,16 +2221,16 @@
                   <c:v>0.9856905158069883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.98506533914125693</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.98444379219254474</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.9863243092380688</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.991005291005291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,16 +2386,16 @@
                   <c:v>0.94249600130969202</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.92422961125221126</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.89515624996945165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.86974457111986703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.84043261935860802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,16 +2828,16 @@
                   <c:v>0.98405315614617939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.98079306071871131</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.98242530755711777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.99102636006730227</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.99627659574468086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,16 +2993,16 @@
                   <c:v>0.98733333333333329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.989375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.9864705882352941</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.98166666666666669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.98578947368421055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3439,6 +3439,18 @@
                 <c:pt idx="14">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3591,6 +3603,18 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7631,7 +7655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7644,21 +7668,21 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -7720,7 +7744,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -7801,7 +7825,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -7882,7 +7906,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -7963,7 +7987,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -8044,7 +8068,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -8106,7 +8130,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -8168,7 +8192,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -8230,7 +8254,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -8305,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7B6380-0F8E-498B-9E3D-501DCD4EA5A8}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8318,21 +8342,21 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -8394,7 +8418,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -8457,25 +8481,25 @@
         <f t="shared" si="0"/>
         <v>0.9856905158069883</v>
       </c>
-      <c r="Q3" s="3" t="e">
+      <c r="Q3" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="3" t="e">
+        <v>0.98506533914125693</v>
+      </c>
+      <c r="R3" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="3" t="e">
+        <v>0.98444379219254474</v>
+      </c>
+      <c r="S3" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="3" t="e">
+        <v>0.9863243092380688</v>
+      </c>
+      <c r="T3" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.991005291005291</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -8538,25 +8562,25 @@
         <f t="shared" si="1"/>
         <v>0.94249600130969202</v>
       </c>
-      <c r="Q4" s="3" t="e">
+      <c r="Q4" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="3" t="e">
+        <v>0.92422961125221126</v>
+      </c>
+      <c r="R4" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S4" s="3" t="e">
+        <v>0.89515624996945165</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T4" s="3" t="e">
+        <v>0.86974457111986703</v>
+      </c>
+      <c r="T4" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.84043261935860802</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -8619,25 +8643,25 @@
         <f t="shared" si="2"/>
         <v>0.98405315614617939</v>
       </c>
-      <c r="Q5" s="3" t="e">
+      <c r="Q5" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="3" t="e">
+        <v>0.98079306071871131</v>
+      </c>
+      <c r="R5" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3" t="e">
+        <v>0.98242530755711777</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="3" t="e">
+        <v>0.99102636006730227</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.99627659574468086</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -8700,25 +8724,25 @@
         <f t="shared" si="3"/>
         <v>0.98733333333333329</v>
       </c>
-      <c r="Q6" s="3" t="e">
+      <c r="Q6" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="3" t="e">
+        <v>0.989375</v>
+      </c>
+      <c r="R6" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="3" t="e">
+        <v>0.9864705882352941</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="3" t="e">
+        <v>0.98166666666666669</v>
+      </c>
+      <c r="T6" s="3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.98578947368421055</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -8766,13 +8790,21 @@
       <c r="P7" s="3">
         <v>1481</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="Q7" s="3">
+        <v>1583</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1677</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1767</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1873</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -8820,13 +8852,21 @@
       <c r="P8" s="3">
         <v>476</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="Q8" s="3">
+        <v>369</v>
+      </c>
+      <c r="R8" s="3">
+        <v>270</v>
+      </c>
+      <c r="S8" s="3">
+        <v>184</v>
+      </c>
+      <c r="T8" s="3">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -8874,13 +8914,21 @@
       <c r="P9" s="3">
         <v>24</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="Q9" s="3">
+        <v>31</v>
+      </c>
+      <c r="R9" s="3">
+        <v>30</v>
+      </c>
+      <c r="S9" s="3">
+        <v>16</v>
+      </c>
+      <c r="T9" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -8928,10 +8976,18 @@
       <c r="P10" s="3">
         <v>19</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="Q10" s="3">
+        <v>17</v>
+      </c>
+      <c r="R10" s="3">
+        <v>23</v>
+      </c>
+      <c r="S10" s="3">
+        <v>33</v>
+      </c>
+      <c r="T10" s="3">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/spreadsheets/blocking/bloccoCanon.xlsx
+++ b/spreadsheets/blocking/bloccoCanon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giovi\IdeaProjects\ChatGPTOracle\spreadsheets\blocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAEF3D6-47CF-4A14-BB73-6C3A7F5148F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E146256B-6845-4641-ABE0-98187DE5607A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Canon Block I" sheetId="1" r:id="rId1"/>
@@ -7169,15 +7169,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>481013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7204,16 +7204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295273</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495298</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7240,16 +7240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7655,16 +7655,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -7681,7 +7681,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>0.98888888888888882</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0.80179203915821218</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>0.99414893617021272</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>0.98368421052631583</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -8253,7 +8253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -8333,12 +8333,12 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0.991005291005291</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>0.84043261935860802</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>0.99627659574468086</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>0.98578947368421055</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
